--- a/data/China/China_1500_(CMM-June2011).xlsx
+++ b/data/China/China_1500_(CMM-June2011).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rombert\Documents\GitHub\labrel\data\China\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="13395" windowHeight="12345"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Labour relations used" sheetId="2" r:id="rId2"/>
     <sheet name="Sources" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="184">
   <si>
     <t>NA</t>
   </si>
@@ -1870,20 +1875,20 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2009,16 +2014,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2276,8 +2271,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard_Blad1" xfId="2"/>
   </cellStyles>
   <dxfs count="29">
@@ -2601,9 +2596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2641,9 +2636,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2678,7 +2673,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2713,7 +2708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2889,9 +2884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3300,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L4" s="56">
         <v>150000000</v>
@@ -3431,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L5" s="56">
         <v>78600000</v>
@@ -3563,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L6" s="56">
         <v>71400000</v>
@@ -3695,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L7" s="56">
         <v>21300000</v>
@@ -3827,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L8" s="56">
         <v>6000000</v>
@@ -3959,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L9" s="56">
         <v>27300000</v>
@@ -4091,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L10" s="56">
         <v>48000</v>
@@ -4223,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L11" s="56">
         <v>80063000</v>
@@ -4355,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L12" s="56">
         <v>26687000</v>
@@ -4487,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L13" s="56">
         <v>1227000</v>
@@ -4619,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L14" s="56">
         <v>1227000</v>
@@ -4751,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L15" s="56">
         <v>6135000</v>
@@ -4883,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L16" s="56">
         <v>644000</v>
@@ -5015,10 +5010,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L17" s="56">
         <v>215000</v>
@@ -5147,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L18" s="56">
         <v>245000</v>
@@ -5279,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L19" s="56">
         <v>662000</v>
@@ -5411,10 +5406,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L20" s="56">
         <v>74000</v>
@@ -5543,10 +5538,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L21" s="56">
         <v>442000</v>
@@ -5675,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L22" s="56">
         <v>294000</v>
@@ -5807,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L23" s="56">
         <v>662000</v>
@@ -5939,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L24" s="56">
         <v>74000</v>
@@ -6071,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L25" s="56">
         <v>442000</v>
@@ -6203,10 +6198,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L26" s="56">
         <v>294000</v>
@@ -6335,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L27" s="56">
         <v>200000</v>
@@ -6467,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L28" s="56">
         <v>20000</v>
@@ -6599,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L29" s="56">
         <v>100000</v>
@@ -6730,10 +6725,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L30" s="56">
         <v>982000</v>
@@ -6861,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L31" s="56">
         <v>1227000</v>
@@ -6992,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L32" s="56">
         <v>368000</v>
@@ -7123,10 +7118,10 @@
         <v>0</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L33" s="56">
         <v>123000</v>
@@ -7254,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L34" s="56">
         <v>245000</v>
